--- a/CodeCamelUnitProto.xlsx
+++ b/CodeCamelUnitProto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phile\Documents\GitKraken\CodeCamelV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D4FC44-BDD4-412A-82BD-D68B3DC9BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53630311-947C-4573-99BC-33FC60F7DA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B6672DD-3FD7-46DC-9F9A-0AB6F6387CA9}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>Bonus Evasion</t>
   </si>
   <si>
-    <t>Style Number 1</t>
-  </si>
-  <si>
     <t>Robot.C0.12</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>30 % de Critique Luck supplémentaires</t>
+  </si>
+  <si>
+    <t>Base Style</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -454,13 +454,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,9 +484,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,16 +494,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E4BE3-F23E-4EB7-8CE5-D09EE38FD482}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,34 +999,34 @@
       <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="X1" s="14"/>
+      <c r="K1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
@@ -1045,63 +1045,63 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14">
         <v>1.5</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>2</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <v>1</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>1</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>0.8</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>0.5</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <v>0.2</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="X2" s="14"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="X3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="X3" s="13"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -1147,26 +1147,26 @@
       <c r="Q5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="R5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="9">
         <f ca="1">((((($I$7+R12)*$I$2)/10)+(AVERAGE(T15,T16))*$J$2+(($K$7+R14)*($L$7+R15))*100*$K$2+(($M$7+R16)*$M$2)*100+$N$7*$N$2*10+$O$7*$O$2*10+((R10/R11)*1000)*$L$2)-V11*2)/100</f>
         <v>1.3859999999999999</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB5" s="10">
+      <c r="Y5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="9">
         <f ca="1">((((($I$7+Y12)*$I$2)/10)+(AVERAGE(AA15,AA16))*$J$2+(($K$7+Y14)*($L$7+Y15))*100*$K$2+(($M$7+Y16)*$M$2)*100+$N$7*$N$2*10+$O$7*$O$2*10+((Y10/Y11)*1000)*$L$2)-AC11*2)/100</f>
         <v>1.879</v>
       </c>
@@ -1215,13 +1215,13 @@
         <v>1.6324999999999998</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1344,12 +1344,12 @@
       <c r="R10" s="1">
         <v>3</v>
       </c>
-      <c r="S10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T10" s="10">
+      <c r="S10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="9">
         <f ca="1">((RANDBETWEEN($T$6,$V$6))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($T$7,$V$7))+((($F$2*(1+($B$2/10))+10)/10)))</f>
-        <v>14.2</v>
+        <v>16.2</v>
       </c>
       <c r="X10" s="4" t="s">
         <v>46</v>
@@ -1357,12 +1357,12 @@
       <c r="Y10" s="1">
         <v>4</v>
       </c>
-      <c r="Z10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA10" s="10">
+      <c r="Z10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" s="9">
         <f ca="1">((RANDBETWEEN($AA$6,$AC$6))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$7,$AC$7))+((($D$2*(1+($B$2/10))+10)/10))+((RANDBETWEEN($AA$8,$AC$8))+((($F$2*(1+($B$2/10))+10)/10))))</f>
-        <v>31.299999999999997</v>
+        <v>27.299999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -1372,15 +1372,15 @@
       <c r="R11" s="1">
         <v>100</v>
       </c>
-      <c r="S11" s="23" t="s">
-        <v>63</v>
+      <c r="S11" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="T11" s="8">
         <f ca="1">((RANDBETWEEN($T$6,$T$6))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($T$7,$T$7))+((($D$2*(1+($B$2/10))+10)/10)))</f>
         <v>13.2</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V11">
         <v>2</v>
@@ -1391,15 +1391,15 @@
       <c r="Y11" s="1">
         <v>100</v>
       </c>
-      <c r="Z11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA11" s="20">
+      <c r="Z11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" s="19">
         <f ca="1">((RANDBETWEEN($AA$6,$AA$6))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$7,$AA$7))+((($D$2*(1+($B$2/10))+10)/10))+((RANDBETWEEN($AA$8,$AA$8))+((($F$2*(1+($B$2/10))+10)/10))))</f>
         <v>23.299999999999997</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC11" s="1">
         <v>3</v>
@@ -1410,8 +1410,8 @@
         <v>48</v>
       </c>
       <c r="R12" s="1"/>
-      <c r="S12" s="23" t="s">
-        <v>64</v>
+      <c r="S12" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="T12" s="8">
         <f ca="1">((RANDBETWEEN($V$6,$V$6))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($V$7,$V$7))+((($D$2*(1+($B$2/10))+10)/10)))</f>
@@ -1423,10 +1423,10 @@
       <c r="Y12" s="1">
         <v>-50</v>
       </c>
-      <c r="Z12" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA12" s="20">
+      <c r="Z12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA12" s="19">
         <f ca="1">((RANDBETWEEN($AC$6,$AC$6))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AC$7,$AC$7))+((($D$2*(1+($B$2/10))+10)/10))+((RANDBETWEEN($AC$8,$AC$8))+((($F$2*(1+($B$2/10))+10)/10))))</f>
         <v>33.299999999999997</v>
       </c>
@@ -1437,46 +1437,46 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13" s="19">
+        <v>59</v>
+      </c>
+      <c r="T13" s="18">
         <f ca="1">T10*10</f>
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="X13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA13" s="19">
+        <v>59</v>
+      </c>
+      <c r="AA13" s="18">
         <f ca="1">AA10*10</f>
-        <v>313</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="18">
+      <c r="R14" s="20"/>
+      <c r="S14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="17">
         <f ca="1">T10*($J$7+$R$13)</f>
-        <v>21.299999999999997</v>
+        <v>24.299999999999997</v>
       </c>
       <c r="X14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA14" s="18">
+      <c r="Z14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA14" s="17">
         <f ca="1">AA10*($J$7+$Y$13)</f>
-        <v>46.949999999999996</v>
+        <v>40.949999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -1485,22 +1485,22 @@
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="30">
+        <v>64</v>
+      </c>
+      <c r="T15" s="28">
         <f t="shared" ref="T15:T16" ca="1" si="0">T11*($J$7+$R$13)</f>
         <v>19.799999999999997</v>
       </c>
       <c r="X15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="20">
         <v>0.1</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15" s="30">
+        <v>64</v>
+      </c>
+      <c r="AA15" s="28">
         <f ca="1">AA11*($J$7+$Y$13)</f>
         <v>34.949999999999996</v>
       </c>
@@ -1509,31 +1509,31 @@
       <c r="Q16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="21"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T16" s="30">
+        <v>65</v>
+      </c>
+      <c r="T16" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>25.799999999999997</v>
       </c>
       <c r="X16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="Y16" s="20">
         <v>0.1</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA16" s="30">
+        <v>65</v>
+      </c>
+      <c r="AA16" s="28">
         <f ca="1">AA12*($J$7+$Y$13)</f>
         <v>49.949999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>0</v>
@@ -1579,26 +1579,26 @@
       <c r="Q18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="U18" s="10">
+      <c r="R18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="U18" s="9">
         <f ca="1">((((($I$20+R25)*$I$2)/10)+(AVERAGE(T28,T29))*$J$2+(($K$20+R27)*($L$20+R28))*100*$K$2+(($M$20+R29)*$M$2)*100+$N$20*$N$2*10+$O$20*$O$2*10+((R23/R24)*1000)*$L$2)-V24*2)/100</f>
         <v>1.321</v>
       </c>
       <c r="X18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA18" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB18" s="10">
+      <c r="Y18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB18" s="9">
         <f ca="1">((((($I$20+Y25)*$I$2)/10)+(AVERAGE(AA28,AA29))*$J$2+(($K$20+Y27)*($L$20+Y28))*100*$K$2+(($M$20+Y29)*$M$2)*100+$N$20*$N$2*10+$O$20*$O$2*10+((Y23/Y24)*1000)*$L$2)-AC24*2)/100</f>
         <v>1.8136666666666668</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>34</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>38</v>
@@ -1626,7 +1626,7 @@
         <v>34</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>38</v>
@@ -1647,13 +1647,13 @@
         <v>1.5673333333333335</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
@@ -1696,7 +1696,7 @@
         <v>35</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>40</v>
@@ -1764,10 +1764,10 @@
       <c r="R23" s="1">
         <v>4</v>
       </c>
-      <c r="S23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T23" s="10">
+      <c r="S23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="9">
         <f ca="1">((RANDBETWEEN($T$19,$V$19))+((($G$2*(1+($B$2/10))+10)/10)))</f>
         <v>7.1</v>
       </c>
@@ -1777,12 +1777,12 @@
       <c r="Y23" s="1">
         <v>7</v>
       </c>
-      <c r="Z23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA23" s="10">
+      <c r="Z23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA23" s="9">
         <f ca="1">((RANDBETWEEN($AA$19,$AC$19))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$20,$AC$20))+((($E$2*(1+($B$2/10))+10)/10)))</f>
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
@@ -1792,15 +1792,15 @@
       <c r="R24" s="1">
         <v>125</v>
       </c>
-      <c r="S24" s="23" t="s">
-        <v>63</v>
+      <c r="S24" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="T24" s="8">
         <f ca="1">((RANDBETWEEN($T$19,$T$19))+((($G$2*(1+($B$2/10))+10)/10)))</f>
         <v>7.1</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V24">
         <v>2</v>
@@ -1811,15 +1811,15 @@
       <c r="Y24" s="1">
         <v>150</v>
       </c>
-      <c r="Z24" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA24" s="20">
+      <c r="Z24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA24" s="19">
         <f ca="1">((RANDBETWEEN($AA$19,$AA$19))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$20,$AA$20))+((($E$2*(1+($B$2/10))+10)/10)))</f>
         <v>10.199999999999999</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC24" s="1">
         <v>4</v>
@@ -1830,8 +1830,8 @@
         <v>48</v>
       </c>
       <c r="R25" s="1"/>
-      <c r="S25" s="23" t="s">
-        <v>64</v>
+      <c r="S25" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="T25" s="8">
         <f ca="1">((RANDBETWEEN($V$19,$V$19))+((($G$2*(1+($B$2/10))+10)/10)))</f>
@@ -1843,10 +1843,10 @@
       <c r="Y25" s="1">
         <v>250</v>
       </c>
-      <c r="Z25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA25" s="20">
+      <c r="Z25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="19">
         <f ca="1">((RANDBETWEEN($AC$19,$AC$19))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AC$20,$AC$20))+((($E$2*(1+($B$2/10))+10)/10)))</f>
         <v>16.2</v>
       </c>
@@ -1857,9 +1857,9 @@
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T26" s="19">
+        <v>59</v>
+      </c>
+      <c r="T26" s="18">
         <f ca="1">T23*10</f>
         <v>71</v>
       </c>
@@ -1868,37 +1868,37 @@
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA26" s="19">
+        <v>59</v>
+      </c>
+      <c r="AA26" s="18">
         <f ca="1">AA23*10</f>
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="T27" s="18">
+      <c r="R27" s="20"/>
+      <c r="S27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" s="17">
         <f ca="1">T23*($J$20+$R$26)</f>
         <v>3.55</v>
       </c>
       <c r="X27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27" s="20">
         <v>0.08</v>
       </c>
-      <c r="Z27" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA27" s="18">
+      <c r="Z27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA27" s="17">
         <f ca="1">AA23*($J$20+$Y$26)</f>
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -1907,20 +1907,20 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T28" s="30">
+        <v>64</v>
+      </c>
+      <c r="T28" s="28">
         <f t="shared" ref="T28:T29" ca="1" si="1">T24*($J$20+$R$26)</f>
         <v>3.55</v>
       </c>
       <c r="X28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y28" s="22"/>
+      <c r="Y28" s="21"/>
       <c r="Z28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA28" s="30">
+        <v>64</v>
+      </c>
+      <c r="AA28" s="28">
         <f ca="1">AA24*($J$20+$Y$26)</f>
         <v>5.0999999999999996</v>
       </c>
@@ -1929,33 +1929,33 @@
       <c r="Q29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="20">
         <v>0.1</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T29" s="30">
+        <v>65</v>
+      </c>
+      <c r="T29" s="28">
         <f t="shared" ca="1" si="1"/>
         <v>4.55</v>
       </c>
       <c r="X29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="20">
         <v>-0.05</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" s="30">
+        <v>65</v>
+      </c>
+      <c r="AA29" s="28">
         <f ca="1">AA25*($J$20+$Y$26)</f>
         <v>8.1</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>0</v>
@@ -2001,26 +2001,26 @@
       <c r="Q31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R31" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="T31" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="U31" s="10">
+      <c r="R31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T31" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="U31" s="9">
         <f ca="1">((((($I$33+R38)*$I$2)/10)+(AVERAGE(T41,T42))*$J$2+(($K$33+R40)*($L$33+R41))*100*$K$2+(($M$33+R42)*$M$2)*100+$N$33*$N$2*10+$O$33*$O$2*10+((R36/R37)*1000)*$L$2)-V37*2)/100</f>
         <v>1.3656666666666666</v>
       </c>
       <c r="X31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA31" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB31" s="10">
+      <c r="Y31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB31" s="9">
         <f ca="1">((((($I$33+Y38)*$I$2)/10)+(AVERAGE(AA41,AA42))*$J$2+(($K$33+Y40)*($L$33+Y41))*100*$K$2+(($M$33+Y42)*$M$2)*100+$N$33*$N$2*10+$O$33*$O$2*10+((Y36/Y37)*1000)*$L$2)-AC37*2)/100</f>
         <v>1.839</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>34</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>38</v>
@@ -2048,7 +2048,7 @@
         <v>34</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z32" s="4" t="s">
         <v>38</v>
@@ -2069,13 +2069,13 @@
         <v>1.6023333333333332</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
@@ -2106,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>40</v>
@@ -2124,7 +2124,7 @@
         <v>35</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z33" s="4" t="s">
         <v>40</v>
@@ -2192,12 +2192,12 @@
       <c r="R36" s="1">
         <v>5</v>
       </c>
-      <c r="S36" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T36" s="10">
+      <c r="S36" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="9">
         <f ca="1">((RANDBETWEEN($T$33,$V$33))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($T$32,$V$32))+((($F$2*(1+($B$2/10))+10)/10)))</f>
-        <v>13.2</v>
+        <v>11.2</v>
       </c>
       <c r="X36" s="4" t="s">
         <v>46</v>
@@ -2205,12 +2205,12 @@
       <c r="Y36" s="1">
         <v>9</v>
       </c>
-      <c r="Z36" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA36" s="10">
+      <c r="Z36" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA36" s="9">
         <f ca="1">((RANDBETWEEN($AA$33,$AC$33))+((($F$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$32,$AC$32))+((($G$2*(1+($B$2/10))+10)/10)))</f>
-        <v>7.1999999999999993</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
@@ -2220,15 +2220,15 @@
       <c r="R37" s="1">
         <v>75</v>
       </c>
-      <c r="S37" s="23" t="s">
-        <v>63</v>
+      <c r="S37" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="T37" s="8">
         <f ca="1">((RANDBETWEEN($T$33,$T$33))+((($F$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($T$32,$T$32))+((($G$2*(1+($B$2/10))+10)/10)))</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V37">
         <v>2</v>
@@ -2239,15 +2239,15 @@
       <c r="Y37" s="1">
         <v>75</v>
       </c>
-      <c r="Z37" s="23" t="s">
-        <v>63</v>
+      <c r="Z37" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="AA37" s="8">
         <f ca="1">((RANDBETWEEN($AA$33,$AA$33))+((($F$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$32,$AA$32))+((($G$2*(1+($B$2/10))+10)/10)))</f>
         <v>6.2</v>
       </c>
       <c r="AB37" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC37" s="1">
         <v>3</v>
@@ -2260,8 +2260,8 @@
       <c r="R38" s="1">
         <v>0</v>
       </c>
-      <c r="S38" s="23" t="s">
-        <v>64</v>
+      <c r="S38" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="T38" s="8">
         <f ca="1">((RANDBETWEEN($V$33,$V$33))+((($F$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($V$32,$V$32))+((($G$2*(1+($B$2/10))+10)/10)))</f>
@@ -2271,8 +2271,8 @@
         <v>48</v>
       </c>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="23" t="s">
-        <v>64</v>
+      <c r="Z38" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="AA38" s="8">
         <f ca="1">((RANDBETWEEN($AC$33,$AC$33))+((($F$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AC$32,$AC$32))+((($G$2*(1+($B$2/10))+10)/10)))</f>
@@ -2285,46 +2285,46 @@
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T39" s="19">
+        <v>59</v>
+      </c>
+      <c r="T39" s="18">
         <f ca="1">T36*10</f>
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="X39" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Y39" s="1"/>
       <c r="Z39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA39" s="19">
+        <v>59</v>
+      </c>
+      <c r="AA39" s="18">
         <f ca="1">AA36*10</f>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R40" s="21"/>
-      <c r="S40" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="T40" s="18">
+      <c r="R40" s="20"/>
+      <c r="S40" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40" s="17">
         <f ca="1">T36*($J$33+$R$39)</f>
-        <v>13.2</v>
+        <v>11.2</v>
       </c>
       <c r="X40" s="4" t="s">
         <v>50</v>
       </c>
       <c r="Y40" s="1"/>
-      <c r="Z40" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA40" s="18">
+      <c r="Z40" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA40" s="17">
         <f ca="1">AA36*($J$33+$Y$39)</f>
-        <v>7.1999999999999993</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -2333,20 +2333,20 @@
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T41" s="30">
+        <v>64</v>
+      </c>
+      <c r="T41" s="28">
         <f ca="1">T37*($J$33+$R$39)</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="X41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y41" s="22"/>
+      <c r="Y41" s="21"/>
       <c r="Z41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA41" s="30">
+        <v>64</v>
+      </c>
+      <c r="AA41" s="28">
         <f ca="1">AA37*($J$33+$Y$39)</f>
         <v>6.2</v>
       </c>
@@ -2355,29 +2355,29 @@
       <c r="Q42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R42" s="21"/>
+      <c r="R42" s="20"/>
       <c r="S42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T42" s="30">
-        <f t="shared" ref="T41:T42" ca="1" si="2">T38*($J$33+$R$39)</f>
+        <v>65</v>
+      </c>
+      <c r="T42" s="28">
+        <f t="shared" ref="T42" ca="1" si="2">T38*($J$33+$R$39)</f>
         <v>14.2</v>
       </c>
       <c r="X42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y42" s="21"/>
+      <c r="Y42" s="20"/>
       <c r="Z42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA42" s="30">
+        <v>65</v>
+      </c>
+      <c r="AA42" s="28">
         <f ca="1">AA38*($J$33+$Y$39)</f>
         <v>12.2</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>0</v>
@@ -2423,26 +2423,26 @@
       <c r="Q44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R44" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="T44" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="U44" s="10">
+      <c r="R44" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T44" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="U44" s="9">
         <f ca="1">((((($I$46+R51)*$I$2)/10)+(AVERAGE(T54,T55))*$J$2+(($K$46+R53)*($L$46+R54))*100*$K$2+(($M$46+R55)*$M$2)*100+$N$46*$N$2*10+$O$46*$O$2*10+((R49/R50)*1000)*$L$2)-V50*2)/100</f>
         <v>1.3780000000000001</v>
       </c>
       <c r="X44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y44" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA44" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB44" s="10">
+      <c r="Y44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA44" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB44" s="9">
         <f ca="1">((((($I$46+Y51)*$I$2)/10)+(AVERAGE(AA54,AA55))*$J$2+(($K$46+Y53)*($L$46+Y54))*100*$K$2+(($M$46+Y55)*$M$2)*100+$N$46*$N$2*10+$O$46*$O$2*10+((Y49/Y50)*1000)*$L$2)-AC50*2)/100</f>
         <v>1.8913333333333335</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>34</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S45" s="4" t="s">
         <v>38</v>
@@ -2470,7 +2470,7 @@
         <v>34</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z45" s="4" t="s">
         <v>38</v>
@@ -2491,10 +2491,10 @@
         <v>1.6346666666666669</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -2528,7 +2528,7 @@
         <v>35</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S46" s="4" t="s">
         <v>40</v>
@@ -2546,7 +2546,7 @@
         <v>35</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z46" s="4" t="s">
         <v>40</v>
@@ -2614,12 +2614,12 @@
       <c r="R49" s="1">
         <v>3</v>
       </c>
-      <c r="S49" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T49" s="10">
+      <c r="S49" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" s="9">
         <f ca="1">((RANDBETWEEN($T$46,$V$46))+((($E$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($T$45,$V$45))+((($F$2*(1+($B$2/10))+10)/10)))</f>
-        <v>9.1999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="X49" s="4" t="s">
         <v>46</v>
@@ -2627,12 +2627,12 @@
       <c r="Y49" s="1">
         <v>2</v>
       </c>
-      <c r="Z49" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA49" s="10">
+      <c r="Z49" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA49" s="9">
         <f ca="1">((RANDBETWEEN($AA$46,$AC$46))+((($E$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$45,$AC$45))+((($F$2*(1+($B$2/10))+10)/10)))</f>
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
       <c r="AC49" s="1"/>
     </row>
@@ -2643,15 +2643,15 @@
       <c r="R50" s="1">
         <v>100</v>
       </c>
-      <c r="S50" s="23" t="s">
-        <v>63</v>
+      <c r="S50" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="T50" s="8">
         <f ca="1">((RANDBETWEEN($T$46,$T$46))+((($E$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($T$45,$T$45))+((($F$2*(1+($B$2/10))+10)/10)))</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V50">
         <v>2</v>
@@ -2662,15 +2662,15 @@
       <c r="Y50" s="1">
         <v>150</v>
       </c>
-      <c r="Z50" s="23" t="s">
-        <v>63</v>
+      <c r="Z50" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="AA50" s="8">
         <f ca="1">((RANDBETWEEN($AA$46,$AA$46))+((($E$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$45,$AA$45))+((($F$2*(1+($B$2/10))+10)/10)))</f>
         <v>16.2</v>
       </c>
       <c r="AB50" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC50" s="1">
         <v>4</v>
@@ -2683,8 +2683,8 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="23" t="s">
-        <v>64</v>
+      <c r="S51" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="T51" s="8">
         <f ca="1">((RANDBETWEEN($V$46,$V$46))+((($E$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($V$45,$V$45))+((($F$2*(1+($B$2/10))+10)/10)))</f>
@@ -2694,8 +2694,8 @@
         <v>48</v>
       </c>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="23" t="s">
-        <v>64</v>
+      <c r="Z51" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="AA51" s="8">
         <f ca="1">((RANDBETWEEN($AC$46,$AC$46))+((($E$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AC$45,$AC$45))+((($F$2*(1+($B$2/10))+10)/10)))</f>
@@ -2709,22 +2709,22 @@
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T52" s="19">
+        <v>59</v>
+      </c>
+      <c r="T52" s="18">
         <f ca="1">T49*10</f>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X52" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Y52" s="1"/>
       <c r="Z52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA52" s="19">
+        <v>59</v>
+      </c>
+      <c r="AA52" s="18">
         <f ca="1">AA49*10</f>
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AC52" s="1"/>
     </row>
@@ -2732,26 +2732,26 @@
       <c r="Q53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R53" s="21"/>
-      <c r="S53" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="T53" s="18">
+      <c r="R53" s="20"/>
+      <c r="S53" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T53" s="17">
         <f ca="1">T49*($J$46+$R$52)</f>
-        <v>18.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="X53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Y53" s="21">
+      <c r="Y53" s="20">
         <v>0.1</v>
       </c>
-      <c r="Z53" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA53" s="18">
+      <c r="Z53" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA53" s="17">
         <f ca="1">AA49*($J$46+$Y$52)</f>
-        <v>34.4</v>
+        <v>32.4</v>
       </c>
       <c r="AC53" s="1"/>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T54" s="30">
+        <v>64</v>
+      </c>
+      <c r="T54" s="28">
         <f ca="1">T50*($J$46+$R$52)</f>
         <v>14.399999999999999</v>
       </c>
       <c r="X54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y54" s="21">
+      <c r="Y54" s="20">
         <v>0.5</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA54" s="30">
+        <v>64</v>
+      </c>
+      <c r="AA54" s="28">
         <f ca="1">AA50*($J$46+$Y$52)</f>
         <v>32.4</v>
       </c>
@@ -2786,24 +2786,24 @@
       <c r="Q55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R55" s="21"/>
+      <c r="R55" s="20"/>
       <c r="S55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T55" s="30">
+        <v>65</v>
+      </c>
+      <c r="T55" s="28">
         <f ca="1">T51*($J$46+$R$52)</f>
         <v>20.399999999999999</v>
       </c>
       <c r="X55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y55" s="21">
+      <c r="Y55" s="20">
         <v>0.1</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA55" s="30">
+        <v>65</v>
+      </c>
+      <c r="AA55" s="28">
         <f ca="1">AA51*($J$46+$Y$52)</f>
         <v>36.4</v>
       </c>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>0</v>
@@ -2857,26 +2857,26 @@
       <c r="Q57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R57" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="T57" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="U57" s="10">
+      <c r="R57" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T57" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="U57" s="9">
         <f ca="1">((((($I$59+R64)*$I$2)/10)+(AVERAGE(T67,T68))*$J$2+(($K$59+R66)*($L$59+R67))*100*$K$2+(($M$59+R68)*$M$2)*100+$N$59*$N$2*10+$O$59*$O$2*10+((R62/R63)*1000)*$L$2)-V63*2)/100</f>
         <v>1.3281999999999998</v>
       </c>
       <c r="X57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y57" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA57" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB57" s="10">
+      <c r="Y57" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA57" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB57" s="9">
         <f ca="1">((((($I$59+Y64)*$I$2)/10)+(AVERAGE(AA67,AA68))*$J$2+(($K$59+Y66)*($L$59+Y67))*100*$K$2+(($M$59+Y68)*$M$2)*100+$N$59*$N$2*10+$O$59*$O$2*10+((Y62/Y63)*1000)*$L$2)-AC63*2)/100</f>
         <v>1.9080000000000001</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>34</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>38</v>
@@ -2904,7 +2904,7 @@
         <v>34</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z58" s="4" t="s">
         <v>38</v>
@@ -2925,16 +2925,16 @@
         <v>1.6181000000000001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F59" s="1"/>
       <c r="I59" s="1">
@@ -2980,7 +2980,7 @@
         <v>35</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z59" s="4" t="s">
         <v>40</v>
@@ -3062,12 +3062,12 @@
       <c r="R62" s="1">
         <v>3</v>
       </c>
-      <c r="S62" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T62" s="10">
+      <c r="S62" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="T62" s="9">
         <f ca="1">((RANDBETWEEN($T$59,$V$59))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($T$58,$V$58))+((($G$2*(1+($B$2/10))+10)/10)))</f>
-        <v>17.2</v>
+        <v>20.2</v>
       </c>
       <c r="X62" s="4" t="s">
         <v>46</v>
@@ -3075,12 +3075,12 @@
       <c r="Y62" s="1">
         <v>5</v>
       </c>
-      <c r="Z62" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA62" s="10">
+      <c r="Z62" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA62" s="9">
         <f ca="1">((RANDBETWEEN($AA$61,$AC$61))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$60,$AC$60))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$59,$AC$59))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$58,$AC$58))+((($G$2*(1+($B$2/10))+10)/10)))</f>
-        <v>52.4</v>
+        <v>47.4</v>
       </c>
       <c r="AC62" s="1"/>
     </row>
@@ -3091,15 +3091,15 @@
       <c r="R63" s="1">
         <v>100</v>
       </c>
-      <c r="S63" s="23" t="s">
-        <v>63</v>
+      <c r="S63" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="T63" s="8">
         <f ca="1">((RANDBETWEEN($T$59,$T$59))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($T$58,$T$58))+((($G$2*(1+($B$2/10))+10)/10)))</f>
         <v>17.2</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V63">
         <v>2</v>
@@ -3110,15 +3110,15 @@
       <c r="Y63" s="1">
         <v>100</v>
       </c>
-      <c r="Z63" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA63" s="20">
+      <c r="Z63" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA63" s="19">
         <f ca="1">((RANDBETWEEN($AA$61,$AA$61))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$60,$AA$60))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$59,$AA$59))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AA$58,$AA$58))+((($G$2*(1+($B$2/10))+10)/10)))</f>
         <v>43.4</v>
       </c>
       <c r="AB63" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC63" s="1">
         <v>4</v>
@@ -3131,8 +3131,8 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="23" t="s">
-        <v>64</v>
+      <c r="S64" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="T64" s="8">
         <f ca="1">((RANDBETWEEN($V$59,$V$59))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($V$58,$V$58))+((($G$2*(1+($B$2/10))+10)/10)))</f>
@@ -3144,10 +3144,10 @@
       <c r="Y64" s="1">
         <v>-50</v>
       </c>
-      <c r="Z64" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA64" s="20">
+      <c r="Z64" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA64" s="19">
         <f ca="1">((RANDBETWEEN($AC$61,$AC$61))+((($D$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AC$60,$AC$60))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AC$59,$AC$59))+((($G$2*(1+($B$2/10))+10)/10)))+((RANDBETWEEN($AC$58,$AC$58))+((($G$2*(1+($B$2/10))+10)/10)))</f>
         <v>53.4</v>
       </c>
@@ -3159,11 +3159,11 @@
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T65" s="19">
+        <v>59</v>
+      </c>
+      <c r="T65" s="18">
         <f ca="1">T62*10</f>
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="X65" s="4" t="s">
         <v>49</v>
@@ -3172,11 +3172,11 @@
         <v>0.2</v>
       </c>
       <c r="Z65" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA65" s="19">
+        <v>59</v>
+      </c>
+      <c r="AA65" s="18">
         <f ca="1">AA62*10</f>
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="AC65" s="1"/>
     </row>
@@ -3184,26 +3184,26 @@
       <c r="Q66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R66" s="21"/>
-      <c r="S66" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="T66" s="18">
+      <c r="R66" s="20"/>
+      <c r="S66" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T66" s="17">
         <f ca="1">T62*($J$59+$R$65)</f>
-        <v>13.76</v>
+        <v>16.16</v>
       </c>
       <c r="X66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Y66" s="21">
+      <c r="Y66" s="20">
         <v>-0.1</v>
       </c>
-      <c r="Z66" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA66" s="18">
+      <c r="Z66" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA66" s="17">
         <f ca="1">AA62*($Y$65+$J$59)</f>
-        <v>52.4</v>
+        <v>47.4</v>
       </c>
       <c r="AC66" s="1"/>
     </row>
@@ -3213,20 +3213,20 @@
       </c>
       <c r="R67" s="1"/>
       <c r="S67" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T67" s="30">
+        <v>64</v>
+      </c>
+      <c r="T67" s="28">
         <f ca="1">T63*($J$59+$R$65)</f>
         <v>13.76</v>
       </c>
       <c r="X67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y67" s="21"/>
+      <c r="Y67" s="20"/>
       <c r="Z67" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA67" s="30">
+        <v>64</v>
+      </c>
+      <c r="AA67" s="28">
         <f ca="1">AA63*($Y$65+$J$59)</f>
         <v>43.4</v>
       </c>
@@ -3236,23 +3236,23 @@
       <c r="Q68" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R68" s="21"/>
+      <c r="R68" s="20"/>
       <c r="S68" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T68" s="30">
-        <f t="shared" ref="T67:T68" ca="1" si="3">T64*($J$59+$R$65)</f>
+        <v>65</v>
+      </c>
+      <c r="T68" s="28">
+        <f t="shared" ref="T68" ca="1" si="3">T64*($J$59+$R$65)</f>
         <v>18.559999999999999</v>
       </c>
       <c r="X68" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y68" s="21"/>
+      <c r="Y68" s="20"/>
       <c r="Z68" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA68" s="30">
-        <f t="shared" ref="AA67:AA68" ca="1" si="4">AA64*($Y$65+$J$59)</f>
+        <v>65</v>
+      </c>
+      <c r="AA68" s="28">
+        <f t="shared" ref="AA68" ca="1" si="4">AA64*($Y$65+$J$59)</f>
         <v>53.4</v>
       </c>
       <c r="AC68" s="1"/>
@@ -3307,846 +3307,877 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E1" s="24"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="E1" s="23"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="Z2" s="29"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="34"/>
-      <c r="Z2" s="34"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>82</v>
       </c>
       <c r="C3" s="32">
         <f ca="1">AVERAGE((O3-$O$36),(P3-$P$36),(Q3-$Q$36),(R3-$R$36),(S3-$S$36),(O4-$O$37),(P4-$P$37),(Q4-$Q$37),(R4-$R$37),(S4-$S$37))</f>
         <v>0.30535999999999996</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31">
+      <c r="D3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30">
         <v>1.5</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="26">
         <f ca="1">(((((Units!$I$7+Units!R12)*Units!$I$2)/10)+((Units!T16)*N3)*Units!$J$2+((Units!$K$7+Units!R14)*(Units!$L$7+Units!R15))*100*Units!$K$2+((Units!$M$7+Units!R16)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!R10/Units!R11)*1000)*Units!$L$2)-Units!V11*2)/100</f>
         <v>1.704</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="26">
         <f ca="1">(((((Units!$I$20+Units!R25)*Units!$I$2)/10)+((Units!T29)*N3)*Units!$J$2+((Units!$K$20+Units!R27)*(Units!$L$20+Units!R28))*100*Units!$K$2+((Units!$M$20+Units!R29)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!R23/Units!R24)*1000)*Units!$L$2)-Units!V24*2)/100</f>
         <v>1.3765000000000001</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="26">
         <f ca="1">(((((Units!$I$33+Units!R38)*Units!$I$2)/10)+((Units!T42)*N3)*Units!$J$2+((Units!$K$33+Units!R40)*(Units!$L$33+Units!R41))*100*Units!$K$2+((Units!$M$33+Units!R42)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!R36/Units!R37)*1000)*Units!$L$2)-Units!V37*2)/100</f>
         <v>1.5676666666666665</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="26">
         <f ca="1">(((((Units!$I$46+Units!R51)*Units!$I$2)/10)+((Units!T55)*N3)*Units!$J$2+((Units!$K$46+Units!R53)*(Units!$L$46+Units!R54))*100*Units!$K$2+((Units!$M$46+Units!R55)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!R49/Units!R50)*1000)*Units!$L$2)-Units!V50*2)/100</f>
         <v>1.6419999999999999</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="26">
         <f ca="1">(((((Units!$I$59+Units!R64)*Units!$I$2)/10)+((Units!T68)*N3)*Units!$J$2+((Units!$K$59+Units!R66)*(Units!$L$59+Units!R67))*100*Units!$K$2+((Units!$M$59+Units!R68)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!R62/Units!R63)*1000)*Units!$L$2)-Units!V63*2)/100</f>
         <v>1.5618000000000001</v>
       </c>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="28">
+      <c r="D4" s="30"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="26">
         <f ca="1">(((((Units!$I$7+Units!Y12)*Units!$I$2)/10)+((Units!AA16)*N3)*Units!$J$2+((Units!$K$7+Units!Y14)*(Units!$L$7+Units!Y15))*100*Units!$K$2+((Units!$M$7+Units!Y16)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!Y10/Units!Y11)*1000)*Units!$L$2)-Units!AC11*2)/100</f>
         <v>2.5285000000000002</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="26">
         <f ca="1">(((((Units!$I$20+Units!Y25)*Units!$I$2)/10)+((Units!AA29)*N3)*Units!$J$2+((Units!$K$20+Units!Y27)*(Units!$L$20+Units!Y28))*100*Units!$K$2+((Units!$M$20+Units!Y29)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!Y23/Units!Y24)*1000)*Units!$L$2)-Units!AC24*2)/100</f>
         <v>1.924666666666667</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="26">
         <f ca="1">(((((Units!$I$33+Units!Y38)*Units!$I$2)/10)+((Units!AA42)*N3)*Units!$J$2+((Units!$K$33+Units!Y40)*(Units!$L$33+Units!Y41))*100*Units!$K$2+((Units!$M$33+Units!Y42)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!Y36/Units!Y37)*1000)*Units!$L$2)-Units!AC37*2)/100</f>
         <v>2.0209999999999999</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="26">
         <f ca="1">(((((Units!$I$46+Units!Y51)*Units!$I$2)/10)+((Units!AA55)*N3)*Units!$J$2+((Units!$K$46+Units!Y53)*(Units!$L$46+Units!Y54))*100*Units!$K$2+((Units!$M$46+Units!Y55)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!Y49/Units!Y50)*1000)*Units!$L$2)-Units!AC50*2)/100</f>
         <v>2.2953333333333332</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="26">
         <f ca="1">(((((Units!$I$59+Units!Y64)*Units!$I$2)/10)+((Units!AA68)*N3)*Units!$J$2+((Units!$K$59+Units!Y66)*(Units!$L$59+Units!Y67))*100*Units!$K$2+((Units!$M$59+Units!Y68)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!Y62/Units!Y63)*1000)*Units!$L$2)-Units!AC63*2)/100</f>
         <v>2.5419999999999998</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>83</v>
+      <c r="B5" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="C5" s="32">
         <f ca="1">AVERAGE((O5-$O$36),(P5-$P$36),(Q5-$Q$36),(R5-$R$36),(S5-$S$36),(O6-$O$37),(P6-$P$37),(Q6-$Q$37),(R6-$R$37),(S6-$S$37))</f>
         <v>0.29399999999999993</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31">
+      <c r="D5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30">
         <v>1.8</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="26">
         <f ca="1">((((((Units!$I$7+Units!R12)*N5)*Units!$I$2)/10)+(AVERAGE(Units!T15,Units!T16))*Units!$J$2+((Units!$K$7+Units!R14)*(Units!$L$7+Units!R15))*100*Units!$K$2+((Units!$M$7+Units!R16)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!R10/Units!R11)*1000)*Units!$L$2)-Units!V11*2)/100</f>
         <v>1.5659999999999998</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="26">
         <f ca="1">((((((Units!$I$20+Units!R25)*N5)*Units!$I$2)/10)+(AVERAGE(Units!T28,Units!T29))*Units!$J$2+((Units!$K$20+Units!R27)*(Units!$L$20+Units!R28))*100*Units!$K$2+((Units!$M$20+Units!R29)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!R23/Units!R24)*1000)*Units!$L$2)-Units!V24*2)/100</f>
         <v>1.921</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="26">
         <f ca="1">((((((Units!$I$33+Units!R38)*N5)*Units!$I$2)/10)+(AVERAGE(Units!T41,Units!T42))*Units!$J$2+((Units!$K$33+Units!R40)*(Units!$L$33+Units!R41))*100*Units!$K$2+((Units!$M$33+Units!R42)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!R36/Units!R37)*1000)*Units!$L$2)-Units!V37*2)/100</f>
         <v>1.4856666666666667</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="26">
         <f ca="1">((((((Units!$I$46+Units!R51)*N5)*Units!$I$2)/10)+(AVERAGE(Units!T54,Units!T55))*Units!$J$2+((Units!$K$46+Units!R53)*(Units!$L$46+Units!R54))*100*Units!$K$2+((Units!$M$46+Units!R55)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!R49/Units!R50)*1000)*Units!$L$2)-Units!V50*2)/100</f>
         <v>1.4980000000000002</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="26">
         <f ca="1">((((((Units!$I$59+Units!R64)*N5)*Units!$I$2)/10)+(AVERAGE(Units!T67,Units!T68))*Units!$J$2+((Units!$K$59+Units!R66)*(Units!$L$59+Units!R67))*100*Units!$K$2+((Units!$M$59+Units!R68)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!R62/Units!R63)*1000)*Units!$L$2)-Units!V63*2)/100</f>
         <v>1.6881999999999999</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34" t="s">
+      <c r="W5" s="29"/>
+      <c r="X5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="32"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="28">
+      <c r="D6" s="30"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="26">
         <f ca="1">((((((Units!$I$7+Units!Y12)*N5)*Units!$I$2)/10)+(AVERAGE(Units!AA15,Units!AA16))*Units!$J$2+((Units!$K$7+Units!Y14)*(Units!$L$7+Units!Y15))*100*Units!$K$2+((Units!$M$7+Units!Y16)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!Y10/Units!Y11)*1000)*Units!$L$2)-Units!AC11*2)/100</f>
         <v>1.9989999999999997</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <f ca="1">((((((Units!$I$20+Units!Y25)*N5)*Units!$I$2)/10)+(AVERAGE(Units!AA28,Units!AA29))*Units!$J$2+((Units!$K$20+Units!Y27)*(Units!$L$20+Units!Y28))*100*Units!$K$2+((Units!$M$20+Units!Y29)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!Y23/Units!Y24)*1000)*Units!$L$2)-Units!AC24*2)/100</f>
         <v>2.7136666666666667</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="26">
         <f ca="1">((((((Units!$I$33+Units!Y38)*N5)*Units!$I$2)/10)+(AVERAGE(Units!AA41,Units!AA42))*Units!$J$2+((Units!$K$33+Units!Y40)*(Units!$L$33+Units!Y41))*100*Units!$K$2+((Units!$M$33+Units!Y42)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!Y36/Units!Y37)*1000)*Units!$L$2)-Units!AC37*2)/100</f>
         <v>1.9590000000000001</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="26">
         <f ca="1">((((((Units!$I$46+Units!Y51)*N5)*Units!$I$2)/10)+(AVERAGE(Units!AA54,Units!AA55))*Units!$J$2+((Units!$K$46+Units!Y53)*(Units!$L$46+Units!Y54))*100*Units!$K$2+((Units!$M$46+Units!Y55)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!Y49/Units!Y50)*1000)*Units!$L$2)-Units!AC50*2)/100</f>
         <v>2.0113333333333334</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="26">
         <f ca="1">((((((Units!$I$59+Units!Y64)*N5)*Units!$I$2)/10)+(AVERAGE(Units!AA67,Units!AA68))*Units!$J$2+((Units!$K$59+Units!Y66)*(Units!$L$59+Units!Y67))*100*Units!$K$2+((Units!$M$59+Units!Y68)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!Y62/Units!Y63)*1000)*Units!$L$2)-Units!AC63*2)/100</f>
         <v>2.2080000000000002</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>84</v>
+      <c r="B7" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="32">
         <f ca="1">AVERAGE((O7-$O$36),(P7-$P$36),(Q7-$Q$36),(R7-$R$36),(S7-$S$36),(O8-$O$37),(P8-$P$37),(Q8-$Q$37),(R8-$R$37),(S8-$S$37))</f>
         <v>0.438</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="33">
+      <c r="D7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31">
         <v>0.3</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="26">
         <f ca="1">(((((Units!$I$7+Units!R12)*Units!$I$2)/10)+(AVERAGE(Units!T15,Units!T16))*Units!$J$2+((Units!$K$7+Units!R14+N7)*(Units!$L$7+Units!R15))*100*Units!$K$2+((Units!$M$7+Units!R16)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!R10/Units!R11)*1000)*Units!$L$2)-Units!V11*2)/100</f>
         <v>1.8359999999999999</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="26">
         <f ca="1">(((((Units!$I$20+Units!R25)*Units!$I$2)/10)+(AVERAGE(Units!T28,Units!T29))*Units!$J$2+((Units!$K$20+Units!R27+N7)*(Units!$L$20+Units!R28))*100*Units!$K$2+((Units!$M$20+Units!R29)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!R23/Units!R24)*1000)*Units!$L$2)-Units!V24*2)/100</f>
         <v>1.621</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="26">
         <f ca="1">(((((Units!$I$33+Units!R38)*Units!$I$2)/10)+(AVERAGE(Units!T41,Units!T42))*Units!$J$2+((Units!$K$33+Units!R40+N7)*(Units!$L$33+Units!R41))*100*Units!$K$2+((Units!$M$33+Units!R42)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!R36/Units!R37)*1000)*Units!$L$2)-Units!V37*2)/100</f>
         <v>1.8156666666666665</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="26">
         <f ca="1">(((((Units!$I$46+Units!R51)*Units!$I$2)/10)+(AVERAGE(Units!T54,Units!T55))*Units!$J$2+((Units!$K$46+Units!R53+N7)*(Units!$L$46+Units!R54))*100*Units!$K$2+((Units!$M$46+Units!R55)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!R49/Units!R50)*1000)*Units!$L$2)-Units!V50*2)/100</f>
         <v>1.8280000000000001</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="26">
         <f ca="1">(((((Units!$I$59+Units!R64)*Units!$I$2)/10)+(AVERAGE(Units!T67,Units!T68))*Units!$J$2+((Units!$K$59+Units!R66+N7)*(Units!$L$59+Units!R67))*100*Units!$K$2+((Units!$M$59+Units!R68)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!R62/Units!R63)*1000)*Units!$L$2)-Units!V63*2)/100</f>
         <v>1.7782</v>
       </c>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="28">
+      <c r="D8" s="30"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="26">
         <f ca="1">(((((Units!$I$7+Units!Y12)*Units!$I$2)/10)+(AVERAGE(Units!AA15,Units!AA16))*Units!$J$2+((Units!$K$7+Units!Y14+N7)*(Units!$L$7+Units!Y15))*100*Units!$K$2+((Units!$M$7+Units!Y16)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!Y10/Units!Y11)*1000)*Units!$L$2)-Units!AC11*2)/100</f>
         <v>2.359</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="26">
         <f ca="1">(((((Units!$I$20+Units!Y25)*Units!$I$2)/10)+(AVERAGE(Units!AA28,Units!AA29))*Units!$J$2+((Units!$K$20+Units!Y27+N7)*(Units!$L$20+Units!Y28))*100*Units!$K$2+((Units!$M$20+Units!Y29)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!Y23/Units!Y24)*1000)*Units!$L$2)-Units!AC24*2)/100</f>
         <v>2.1136666666666666</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="26">
         <f ca="1">(((((Units!$I$33+Units!Y38)*Units!$I$2)/10)+(AVERAGE(Units!AA41,Units!AA42))*Units!$J$2+((Units!$K$33+Units!Y40+N7)*(Units!$L$33+Units!Y41))*100*Units!$K$2+((Units!$M$33+Units!Y42)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!Y36/Units!Y37)*1000)*Units!$L$2)-Units!AC37*2)/100</f>
         <v>2.2889999999999997</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="26">
         <f ca="1">(((((Units!$I$46+Units!Y51)*Units!$I$2)/10)+(AVERAGE(Units!AA54,Units!AA55))*Units!$J$2+((Units!$K$46+Units!Y53+N7)*(Units!$L$46+Units!Y54))*100*Units!$K$2+((Units!$M$46+Units!Y55)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!Y49/Units!Y50)*1000)*Units!$L$2)-Units!AC50*2)/100</f>
         <v>2.4913333333333334</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="26">
         <f ca="1">(((((Units!$I$59+Units!Y64)*Units!$I$2)/10)+(AVERAGE(Units!AA67,Units!AA68))*Units!$J$2+((Units!$K$59+Units!Y66+N7)*(Units!$L$59+Units!Y67))*100*Units!$K$2+((Units!$M$59+Units!Y68)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!Y62/Units!Y63)*1000)*Units!$L$2)-Units!AC63*2)/100</f>
         <v>2.3580000000000001</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>85</v>
+      <c r="B9" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="C9" s="32">
         <f ca="1">AVERAGE((O9-$O$36),(P9-$P$36),(Q9-$Q$36),(R9-$R$36),(S9-$S$36),(O10-$O$37),(P10-$P$37),(Q10-$Q$37),(R10-$R$37),(S10-$S$37))</f>
         <v>0.4</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="33">
+      <c r="D9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31">
         <v>0.5</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="26">
         <f ca="1">(((((Units!$I$7+Units!R12)*Units!$I$2)/10)+(AVERAGE(Units!T15,Units!T16))*Units!$J$2+((Units!$K$7+Units!R14)*(Units!$L$7+Units!R15))*100*Units!$K$2+((Units!$M$7+Units!R16+N9)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!R10/Units!R11)*1000)*Units!$L$2)-Units!V11*2)/100</f>
         <v>1.786</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="26">
         <f ca="1">(((((Units!$I$20+Units!R25)*Units!$I$2)/10)+(AVERAGE(Units!T28,Units!T29))*Units!$J$2+((Units!$K$20+Units!R27)*(Units!$L$20+Units!R28))*100*Units!$K$2+((Units!$M$20+Units!R29+N9)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!R23/Units!R24)*1000)*Units!$L$2)-Units!V24*2)/100</f>
         <v>1.7209999999999999</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="26">
         <f ca="1">(((((Units!$I$33+Units!R38)*Units!$I$2)/10)+(AVERAGE(Units!T41,Units!T42))*Units!$J$2+((Units!$K$33+Units!R40)*(Units!$L$33+Units!R41))*100*Units!$K$2+((Units!$M$33+Units!R42+N9)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!R36/Units!R37)*1000)*Units!$L$2)-Units!V37*2)/100</f>
         <v>1.7656666666666667</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="26">
         <f ca="1">(((((Units!$I$46+Units!R51)*Units!$I$2)/10)+(AVERAGE(Units!T54,Units!T55))*Units!$J$2+((Units!$K$46+Units!R53)*(Units!$L$46+Units!R54))*100*Units!$K$2+((Units!$M$46+Units!R55+N9)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!R49/Units!R50)*1000)*Units!$L$2)-Units!V50*2)/100</f>
         <v>1.7779999999999998</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="26">
         <f ca="1">(((((Units!$I$59+Units!R64)*Units!$I$2)/10)+(AVERAGE(Units!T67,Units!T68))*Units!$J$2+((Units!$K$59+Units!R66)*(Units!$L$59+Units!R67))*100*Units!$K$2+((Units!$M$59+Units!R68+N9)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!R62/Units!R63)*1000)*Units!$L$2)-Units!V63*2)/100</f>
         <v>1.7282</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="32"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="28">
+      <c r="D10" s="30"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="26">
         <f ca="1">(((((Units!$I$7+Units!Y12)*Units!$I$2)/10)+(AVERAGE(Units!AA15,Units!AA16))*Units!$J$2+((Units!$K$7+Units!Y14)*(Units!$L$7+Units!Y15))*100*Units!$K$2+((Units!$M$7+Units!Y16+N9)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!Y10/Units!Y11)*1000)*Units!$L$2)-Units!AC11*2)/100</f>
         <v>2.2789999999999999</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="26">
         <f ca="1">(((((Units!$I$20+Units!Y25)*Units!$I$2)/10)+(AVERAGE(Units!AA28,Units!AA29))*Units!$J$2+((Units!$K$20+Units!Y27)*(Units!$L$20+Units!Y28))*100*Units!$K$2+((Units!$M$20+Units!Y29+N9)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!Y23/Units!Y24)*1000)*Units!$L$2)-Units!AC24*2)/100</f>
         <v>2.2136666666666667</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="26">
         <f ca="1">(((((Units!$I$33+Units!Y38)*Units!$I$2)/10)+(AVERAGE(Units!AA41,Units!AA42))*Units!$J$2+((Units!$K$33+Units!Y40)*(Units!$L$33+Units!Y41))*100*Units!$K$2+((Units!$M$33+Units!Y42+N9)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!Y36/Units!Y37)*1000)*Units!$L$2)-Units!AC37*2)/100</f>
         <v>2.2389999999999999</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="26">
         <f ca="1">(((((Units!$I$46+Units!Y51)*Units!$I$2)/10)+(AVERAGE(Units!AA54,Units!AA55))*Units!$J$2+((Units!$K$46+Units!Y53)*(Units!$L$46+Units!Y54))*100*Units!$K$2+((Units!$M$46+Units!Y55+N9)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!Y49/Units!Y50)*1000)*Units!$L$2)-Units!AC50*2)/100</f>
         <v>2.2913333333333337</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="26">
         <f ca="1">(((((Units!$I$59+Units!Y64)*Units!$I$2)/10)+(AVERAGE(Units!AA67,Units!AA68))*Units!$J$2+((Units!$K$59+Units!Y66)*(Units!$L$59+Units!Y67))*100*Units!$K$2+((Units!$M$59+Units!Y68+N9)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!Y62/Units!Y63)*1000)*Units!$L$2)-Units!AC63*2)/100</f>
         <v>2.3080000000000003</v>
       </c>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="7"/>
-      <c r="W11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
+      <c r="W11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="28">
+      <c r="O36" s="26">
         <f ca="1">(((((Units!$I$7+Units!R12)*Units!$I$2)/10)+(AVERAGE(Units!T15,Units!T16))*Units!$J$2+((Units!$K$7+Units!R14)*(Units!$L$7+Units!R15))*100*Units!$K$2+((Units!$M$7+Units!R16)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!R10/Units!R11)*1000)*Units!$L$2)-Units!V11*2)/100</f>
         <v>1.3859999999999999</v>
       </c>
-      <c r="P36" s="28">
+      <c r="P36" s="26">
         <f ca="1">(((((Units!$I$20+Units!R25)*Units!$I$2)/10)+(AVERAGE(Units!T28,Units!T29))*Units!$J$2+((Units!$K$20+Units!R27)*(Units!$L$20+Units!R28))*100*Units!$K$2+((Units!$M$20+Units!R29)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!R23/Units!R24)*1000)*Units!$L$2)-Units!V24*2)/100</f>
         <v>1.321</v>
       </c>
-      <c r="Q36" s="28">
+      <c r="Q36" s="26">
         <f ca="1">(((((Units!$I$33+Units!R38)*Units!$I$2)/10)+(AVERAGE(Units!T41,Units!T42))*Units!$J$2+((Units!$K$33+Units!R40)*(Units!$L$33+Units!R41))*100*Units!$K$2+((Units!$M$33+Units!R42)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!R36/Units!R37)*1000)*Units!$L$2)-Units!V37*2)/100</f>
         <v>1.3656666666666666</v>
       </c>
-      <c r="R36" s="28">
+      <c r="R36" s="26">
         <f ca="1">(((((Units!$I$46+Units!R51)*Units!$I$2)/10)+(AVERAGE(Units!T54,Units!T55))*Units!$J$2+((Units!$K$46+Units!R53)*(Units!$L$46+Units!R54))*100*Units!$K$2+((Units!$M$46+Units!R55)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!R49/Units!R50)*1000)*Units!$L$2)-Units!V50*2)/100</f>
         <v>1.3780000000000001</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="26">
         <f ca="1">(((((Units!$I$59+Units!R64)*Units!$I$2)/10)+(AVERAGE(Units!T67,Units!T68))*Units!$J$2+((Units!$K$59+Units!R66)*(Units!$L$59+Units!R67))*100*Units!$K$2+((Units!$M$59+Units!R68)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!R62/Units!R63)*1000)*Units!$L$2)-Units!V63*2)/100</f>
         <v>1.3281999999999998</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E37" s="24"/>
-      <c r="O37" s="28">
+      <c r="E37" s="23"/>
+      <c r="O37" s="26">
         <f ca="1">(((((Units!$I$7+Units!Y12)*Units!$I$2)/10)+(AVERAGE(Units!AA15,Units!AA16))*Units!$J$2+((Units!$K$7+Units!Y14)*(Units!$L$7+Units!Y15))*100*Units!$K$2+((Units!$M$7+Units!Y16)*Units!$M$2)*100+Units!$N$7*Units!$N$2*10+Units!$O$7*Units!$O$2*10+((Units!Y10/Units!Y11)*1000)*Units!$L$2)-Units!AC11*2)/100</f>
         <v>1.879</v>
       </c>
-      <c r="P37" s="28">
+      <c r="P37" s="26">
         <f ca="1">(((((Units!$I$20+Units!Y25)*Units!$I$2)/10)+(AVERAGE(Units!AA28,Units!AA29))*Units!$J$2+((Units!$K$20+Units!Y27)*(Units!$L$20+Units!Y28))*100*Units!$K$2+((Units!$M$20+Units!Y29)*Units!$M$2)*100+Units!$N$20*Units!$N$2*10+Units!$O$20*Units!$O$2*10+((Units!Y23/Units!Y24)*1000)*Units!$L$2)-Units!AC24*2)/100</f>
         <v>1.8136666666666668</v>
       </c>
-      <c r="Q37" s="28">
+      <c r="Q37" s="26">
         <f ca="1">(((((Units!$I$33+Units!Y38)*Units!$I$2)/10)+(AVERAGE(Units!AA41,Units!AA42))*Units!$J$2+((Units!$K$33+Units!Y40)*(Units!$L$33+Units!Y41))*100*Units!$K$2+((Units!$M$33+Units!Y42)*Units!$M$2)*100+Units!$N$33*Units!$N$2*10+Units!$O$33*Units!$O$2*10+((Units!Y36/Units!Y37)*1000)*Units!$L$2)-Units!AC37*2)/100</f>
         <v>1.839</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="26">
         <f ca="1">(((((Units!$I$46+Units!Y51)*Units!$I$2)/10)+(AVERAGE(Units!AA54,Units!AA55))*Units!$J$2+((Units!$K$46+Units!Y53)*(Units!$L$46+Units!Y54))*100*Units!$K$2+((Units!$M$46+Units!Y55)*Units!$M$2)*100+Units!$N$46*Units!$N$2*10+Units!$O$46*Units!$O$2*10+((Units!Y49/Units!Y50)*1000)*Units!$L$2)-Units!AC50*2)/100</f>
         <v>1.8913333333333335</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="26">
         <f ca="1">(((((Units!$I$59+Units!Y64)*Units!$I$2)/10)+(AVERAGE(Units!AA67,Units!AA68))*Units!$J$2+((Units!$K$59+Units!Y66)*(Units!$L$59+Units!Y67))*100*Units!$K$2+((Units!$M$59+Units!Y68)*Units!$M$2)*100+Units!$N$59*Units!$N$2*10+Units!$O$59*Units!$O$2*10+((Units!Y62/Units!Y63)*1000)*Units!$L$2)-Units!AC63*2)/100</f>
         <v>1.9080000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E38" s="24"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E39" s="24"/>
+      <c r="E39" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F3:M4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:M6"/>
+    <mergeCell ref="F7:M8"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
@@ -4162,38 +4193,7 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="F36:M36"/>
-    <mergeCell ref="F3:M4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F5:M6"/>
-    <mergeCell ref="F7:M8"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O3:S10">
@@ -4247,11 +4247,11 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -4260,9 +4260,9 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -4284,15 +4284,15 @@
       </c>
       <c r="F7" s="8">
         <f ca="1">AVERAGE(F10:F110)</f>
-        <v>10.862376237623771</v>
+        <v>10.773267326732681</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:H7" ca="1" si="0">AVERAGE(G10:G110)</f>
-        <v>10.87227722772278</v>
+        <v>10.971287128712879</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0900990099010013</v>
+        <v>5.8722772277227824</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4324,15 +4324,15 @@
       </c>
       <c r="F10">
         <f ca="1">((RANDBETWEEN($B$10,$C$10))+((($C$5*(1+($C$1/10))+10)/10)))</f>
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="G10">
         <f ca="1">((RANDBETWEEN($B$10,$C$10))+((($C$5*(1+($C$1/10))+10)/10)))</f>
-        <v>9.1</v>
+        <v>12.1</v>
       </c>
       <c r="H10">
         <f ca="1">((RANDBETWEEN($B$12,$C$12))+((($C$4*(1+($C$1/10))+10)/10)))</f>
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -4344,17 +4344,17 @@
       </c>
       <c r="F11">
         <f t="shared" ref="F11:G42" ca="1" si="1">((RANDBETWEEN($B$10,$C$10))+((($C$5*(1+($C$1/10))+10)/10)))</f>
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11:H74" ca="1" si="2">((RANDBETWEEN($B$12,$C$12))+((($C$4*(1+($C$1/10))+10)/10)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="N11" s="13"/>
+        <v>6.1</v>
+      </c>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -4365,188 +4365,188 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
+        <v>10.1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
         <v>8.1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>10.1</v>
+        <v>14.1</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="9">
+        <f ca="1">SUM(F7:H7)</f>
+        <v>27.616831683168343</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
         <v>6.1</v>
       </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
         <v>8.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="10">
-        <f ca="1">SUM(F7:H7)</f>
-        <v>27.82475247524755</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
-      </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <f>((($C$5*(1+($C$1/10))+10)/10))</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>16.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
+        <v>14.1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E16" s="10"/>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
         <v>7.1</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E16" s="11"/>
-      <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
+        <v>10.1</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
         <v>11.1</v>
       </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
-      </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <f ca="1">10*C14</f>
+        <v>276.16831683168346</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
         <v>6.1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
-        <f ca="1">10*C14</f>
-        <v>278.2475247524755</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>15.1</v>
+        <v>8.1</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>14.1</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.1</v>
+        <v>7.1</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>13.1</v>
+        <v>6.1</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>16.100000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>16.100000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
+        <v>15.1</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>16.100000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>16.100000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
@@ -4554,41 +4554,41 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>11.1</v>
+        <v>6.1</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>12.1</v>
+        <v>6.1</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
@@ -4596,17 +4596,17 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>14.1</v>
+        <v>10.1</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
@@ -4616,235 +4616,235 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
+        <v>11.1</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>13.1</v>
+        <v>9.1</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.1</v>
+        <v>11.1</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
+        <v>15.1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="2"/>
         <v>9.1</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>14.1</v>
+        <v>6.1</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>14.1</v>
+        <v>13.1</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>14.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>13.1</v>
+        <v>11.1</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>12.1</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>13.1</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>14.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
+        <v>14.1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="1"/>
         <v>13.1</v>
       </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.1</v>
-      </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>14.1</v>
+        <v>7.1</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
+        <v>10.1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="2"/>
         <v>8.1</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>13.1</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>10.1</v>
+        <v>6.1</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>14.1</v>
+        <v>6.1</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>15.1</v>
+        <v>12.1</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F43">
         <f t="shared" ref="F43:G74" ca="1" si="3">((RANDBETWEEN($B$10,$C$10))+((($C$5*(1+($C$1/10))+10)/10)))</f>
-        <v>16.100000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>14.1</v>
+        <v>9.1</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
+        <v>13.1</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>15.1</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>13.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
@@ -4858,49 +4858,49 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
+        <v>12.1</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
+        <v>11.1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="3"/>
         <v>12.1</v>
       </c>
-      <c r="G47">
-        <f t="shared" ca="1" si="3"/>
-        <v>13.1</v>
-      </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="48" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>14.1</v>
+        <v>7.1</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
+        <v>12.1</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
@@ -4910,21 +4910,21 @@
     <row r="50" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
+        <v>13.1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="3"/>
         <v>7.1</v>
       </c>
-      <c r="G50">
-        <f t="shared" ca="1" si="3"/>
-        <v>15.1</v>
-      </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
@@ -4932,115 +4932,115 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F52">
         <f t="shared" ca="1" si="3"/>
+        <v>8.1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="2"/>
         <v>6.1</v>
-      </c>
-      <c r="G52">
-        <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
-      </c>
-      <c r="H52">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
       </c>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F53">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>8.1</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>10.1</v>
+        <v>6.1</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F54">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>14.1</v>
+        <v>11.1</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F55">
         <f t="shared" ca="1" si="3"/>
-        <v>16.100000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F56">
         <f t="shared" ca="1" si="3"/>
+        <v>12.1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="3"/>
         <v>15.1</v>
       </c>
-      <c r="G56">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.100000000000001</v>
-      </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F57">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>15.1</v>
+        <v>6.1</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="58" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F58">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>14.1</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="59" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F59">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>9.1</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>16.100000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
@@ -5054,31 +5054,31 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F61">
         <f t="shared" ca="1" si="3"/>
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="62" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F62">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
@@ -5092,25 +5092,25 @@
     <row r="63" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F63">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
+        <v>14.1</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="64" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F64">
         <f t="shared" ca="1" si="3"/>
-        <v>14.1</v>
+        <v>13.1</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>16.100000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
@@ -5120,67 +5120,67 @@
     <row r="65" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F65">
         <f t="shared" ca="1" si="3"/>
-        <v>14.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>9.1</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F66">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>15.1</v>
+        <v>6.1</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F67">
         <f t="shared" ca="1" si="3"/>
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F68">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="3"/>
-        <v>13.1</v>
+        <v>6.1</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F69">
         <f t="shared" ca="1" si="3"/>
-        <v>11.1</v>
+        <v>9.1</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="3"/>
-        <v>16.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="2"/>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.3">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="2"/>
@@ -5218,35 +5218,35 @@
     <row r="72" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F72">
         <f t="shared" ca="1" si="3"/>
-        <v>15.1</v>
+        <v>10.1</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="3"/>
-        <v>11.1</v>
+        <v>9.1</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F73">
         <f t="shared" ca="1" si="3"/>
-        <v>12.1</v>
+        <v>7.1</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="3"/>
-        <v>11.1</v>
+        <v>14.1</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F74">
         <f t="shared" ca="1" si="3"/>
-        <v>11.1</v>
+        <v>9.1</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="3"/>
@@ -5254,45 +5254,45 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F75">
         <f t="shared" ref="F75:G110" ca="1" si="4">((RANDBETWEEN($B$10,$C$10))+((($C$5*(1+($C$1/10))+10)/10)))</f>
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75:H110" ca="1" si="5">((RANDBETWEEN($B$12,$C$12))+((($C$4*(1+($C$1/10))+10)/10)))</f>
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="76" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>10.1</v>
+        <v>15.1</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="4"/>
-        <v>11.1</v>
+        <v>15.1</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1</v>
+        <v>13.1</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="4"/>
-        <v>13.1</v>
+        <v>7.1</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="5"/>
@@ -5302,105 +5302,105 @@
     <row r="78" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>15.1</v>
+        <v>10.1</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="4"/>
-        <v>15.1</v>
+        <v>13.1</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999996</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <v>14.1</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999996</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="4"/>
         <v>13.1</v>
-      </c>
-      <c r="G80">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.1</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>12.1</v>
+        <v>8.1</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="4"/>
-        <v>11.1</v>
+        <v>8.1</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0999999999999996</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
+        <v>9.1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="4"/>
         <v>12.1</v>
-      </c>
-      <c r="G82">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.1</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999996</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="4"/>
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>13.1</v>
+        <v>6.1</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="4"/>
@@ -5414,63 +5414,63 @@
     <row r="86" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>14.1</v>
+        <v>12.1</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <v>13.1</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0999999999999996</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>10.1</v>
+        <v>14.1</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="4"/>
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>15.1</v>
+        <v>12.1</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="4"/>
-        <v>15.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1</v>
+        <v>14.1</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>14.1</v>
+        <v>12.1</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="4"/>
@@ -5478,27 +5478,27 @@
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>16.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1</v>
+        <v>15.1</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="4"/>
@@ -5506,59 +5506,59 @@
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1</v>
+        <v>14.1</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1</v>
+        <v>14.1</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="4"/>
-        <v>12.1</v>
+        <v>9.1</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1</v>
+        <v>12.1</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1</v>
+        <v>12.1</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="4"/>
-        <v>14.1</v>
+        <v>15.1</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="5"/>
@@ -5568,43 +5568,43 @@
     <row r="97" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1</v>
+        <v>11.1</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>13.1</v>
+        <v>11.1</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="4"/>
-        <v>14.1</v>
+        <v>10.1</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
+        <v>13.1</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="4"/>
         <v>10.1</v>
-      </c>
-      <c r="G99">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999996</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.3">
@@ -5614,115 +5614,115 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="4"/>
-        <v>10.1</v>
+        <v>15.1</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="4"/>
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F102">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1</v>
+        <v>15.1</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F103">
         <f t="shared" ca="1" si="4"/>
+        <v>14.1</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ca="1" si="4"/>
         <v>7.1</v>
-      </c>
-      <c r="G103">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F104">
         <f t="shared" ca="1" si="4"/>
-        <v>11.1</v>
+        <v>15.1</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F105">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1</v>
+        <v>12.1</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F106">
         <f t="shared" ca="1" si="4"/>
-        <v>13.1</v>
+        <v>11.1</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="4"/>
-        <v>16.100000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0999999999999996</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F107">
         <f t="shared" ca="1" si="4"/>
-        <v>14.1</v>
+        <v>8.1</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="4"/>
-        <v>11.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F108">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="4"/>
@@ -5730,35 +5730,35 @@
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F109">
         <f t="shared" ca="1" si="4"/>
-        <v>13.1</v>
+        <v>9.1</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="4"/>
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F110">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <v>10.1</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="4"/>
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5771,6 +5771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F72A5DAE2341648978EF9084C2699FE" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="39abd1a780d6cb1a58c150681616b65c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c2f5b03c-1842-4306-89f8-0f134e2596ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16b9d63b312e8e379de1a3d334a1c2af" ns3:_="">
     <xsd:import namespace="c2f5b03c-1842-4306-89f8-0f134e2596ec"/>
@@ -5916,22 +5931,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4B2B3B-C147-4047-A17B-E322C4A97431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2f5b03c-1842-4306-89f8-0f134e2596ec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B0C01E-DDEA-436A-B152-B59D88A76C9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09B1061-3EAD-43E6-9035-9BD9BD8F789D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5947,28 +5971,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B0C01E-DDEA-436A-B152-B59D88A76C9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4B2B3B-C147-4047-A17B-E322C4A97431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2f5b03c-1842-4306-89f8-0f134e2596ec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>